--- a/Base_data_report.xlsx
+++ b/Base_data_report.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1987.50</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2897.23</t>
+          <t>4433.10</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22127.30</t>
+          <t>61293.50</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2296.28</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4416.56</t>
+          <t>7022.66</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4812.84</t>
+          <t>9046.75</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5705.55</t>
+          <t>8171.03</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2057.26</t>
+          <t>2580.47</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1911.58</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7611.91</t>
+          <t>16382.77</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>100.29</t>
+          <t>191.54</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10167.87</t>
+          <t>14463.42</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2159.75</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9161.03</t>
+          <t>17714.31</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11731.22</t>
+          <t>20211.60</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11141.06</t>
+          <t>20484.38</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1651.32</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1881.59</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>30.57</t>
+          <t>34.51</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2011.75</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>694.18</t>
+          <t>1913.16</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>774.87</t>
+          <t>1725.60</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1275.30</t>
+          <t>2458.98</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1265.75</t>
+          <t>2109.58</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>9433.08</t>
+          <t>14605.27</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2511.06</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5060.69</t>
+          <t>9392.09</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>5192.93</t>
+          <t>9046.75</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>707.95</t>
+          <t>1274.35</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>12904.91</t>
+          <t>20647.87</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>4.96</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1890.65</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>24410.29</t>
+          <t>40454.80</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1814.78</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>105.78</t>
+          <t>129.42</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1955.69</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2259.98</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2073.96</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5651.77</t>
+          <t>6754.74</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>64.70</t>
+          <t>69.02</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2253.48</t>
+          <t>4294.47</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>9595.59</t>
+          <t>15641.36</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>8879.51</t>
+          <t>15641.36</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2544.08</t>
+          <t>4433.10</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>440.38</t>
+          <t>745.45</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>113.23</t>
+          <t>182.91</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>141.18</t>
+          <t>215.70</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1728.63</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>251.18</t>
+          <t>690.24</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>458.38</t>
+          <t>862.80</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2812.98</t>
+          <t>4433.10</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>18275.85</t>
+          <t>31101.27</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>458.29</t>
+          <t>862.80</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>8231.88</t>
+          <t>13132.81</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>717.05</t>
+          <t>862.80</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>6142.64</t>
+          <t>10186.21</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1978.71</t>
+          <t>2184.60</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>8761.56</t>
+          <t>17471.66</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>9880.94</t>
+          <t>14069.05</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>8046.43</t>
+          <t>15389.72</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>928.42</t>
+          <t>1705.48</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>7444.37</t>
+          <t>13365.11</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>64.27</t>
+          <t>69.02</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1899.92</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>5458.40</t>
+          <t>10521.00</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>1928.70</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>7786.47</t>
+          <t>13410.13</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>5566.45</t>
+          <t>10521.00</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>5656.60</t>
+          <t>9046.75</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>6309.61</t>
+          <t>9046.75</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1837.88</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>11648.26</t>
+          <t>20484.38</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>9357.90</t>
+          <t>15978.86</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>1743.19</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2020.43</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>9013.05</t>
+          <t>16198.82</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>1704.39</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2104.05</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2019.61</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>1906.61</t>
+          <t>3451.20</t>
         </is>
       </c>
     </row>
